--- a/tmp/190421-1/190421-1.txt-total-recap.xlsx
+++ b/tmp/190421-1/190421-1.txt-total-recap.xlsx
@@ -455,13 +455,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -470,8 +473,7 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -488,17 +490,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Characters</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Blocks (50)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Blocks (40)</t>
+          <t>Lines</t>
         </is>
       </c>
     </row>
@@ -509,13 +501,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3478</v>
-      </c>
-      <c r="C4" t="n">
         <v>70</v>
-      </c>
-      <c r="D4" t="n">
-        <v>87</v>
       </c>
     </row>
     <row r="5">
@@ -525,13 +511,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8925</v>
-      </c>
-      <c r="C5" t="n">
         <v>179</v>
-      </c>
-      <c r="D5" t="n">
-        <v>224</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3598</v>
-      </c>
-      <c r="C6" t="n">
         <v>72</v>
-      </c>
-      <c r="D6" t="n">
-        <v>90</v>
       </c>
     </row>
     <row r="7">
@@ -557,13 +531,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4788</v>
-      </c>
-      <c r="C7" t="n">
         <v>96</v>
-      </c>
-      <c r="D7" t="n">
-        <v>120</v>
       </c>
     </row>
     <row r="8">
@@ -573,13 +541,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1464</v>
-      </c>
-      <c r="C8" t="n">
         <v>30</v>
-      </c>
-      <c r="D8" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -589,13 +551,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>654</v>
-      </c>
-      <c r="C9" t="n">
         <v>14</v>
-      </c>
-      <c r="D9" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -605,13 +561,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1421</v>
-      </c>
-      <c r="C10" t="n">
         <v>29</v>
-      </c>
-      <c r="D10" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -621,12 +571,6 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -637,13 +581,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5694</v>
-      </c>
-      <c r="C12" t="n">
         <v>114</v>
-      </c>
-      <c r="D12" t="n">
-        <v>143</v>
       </c>
     </row>
     <row r="13">
@@ -653,13 +591,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493</v>
-      </c>
-      <c r="C13" t="n">
         <v>10</v>
-      </c>
-      <c r="D13" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -669,13 +601,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141</v>
-      </c>
-      <c r="C14" t="n">
         <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -685,13 +611,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>210</v>
-      </c>
-      <c r="C15" t="n">
         <v>5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -701,12 +621,6 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>39</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -717,12 +631,6 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>62</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" t="n">
         <v>2</v>
       </c>
     </row>
@@ -733,12 +641,6 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>110</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -749,13 +651,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130</v>
-      </c>
-      <c r="C19" t="n">
         <v>3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -765,13 +661,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>729</v>
-      </c>
-      <c r="C20" t="n">
         <v>15</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -781,12 +671,6 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>63</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" t="n">
         <v>2</v>
       </c>
     </row>
@@ -797,13 +681,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>211</v>
-      </c>
-      <c r="C22" t="n">
         <v>5</v>
-      </c>
-      <c r="D22" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -813,13 +691,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>143</v>
-      </c>
-      <c r="C23" t="n">
         <v>3</v>
-      </c>
-      <c r="D23" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -829,13 +701,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>269</v>
-      </c>
-      <c r="C24" t="n">
         <v>6</v>
-      </c>
-      <c r="D24" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -845,19 +711,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89</v>
-      </c>
-      <c r="C25" t="n">
         <v>2</v>
-      </c>
-      <c r="D25" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
